--- a/Traduzido/PTBR/Lang/PTBR/Game/Area.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Area.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A9598E-ECD3-40E7-B002-B5925B41781C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E03574-461E-4FC7-923F-5F14721A2316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,15 +190,6 @@
     <t>Alpha 20.27</t>
   </si>
   <si>
-    <t>居民的生活空间</t>
-  </si>
-  <si>
-    <t>培育和收获作物的场所</t>
-  </si>
-  <si>
-    <t>培育家畜的场所</t>
-  </si>
-  <si>
     <t>Sala</t>
   </si>
   <si>
@@ -245,6 +236,15 @@
   </si>
   <si>
     <t>Prender</t>
+  </si>
+  <si>
+    <t>Espaço onde os moradores vivem</t>
+  </si>
+  <si>
+    <t>Local para cultivar e colher plantações</t>
+  </si>
+  <si>
+    <t>Local para criar animais de fazenda</t>
   </si>
 </sst>
 </file>
@@ -626,13 +626,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3:I11"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="35.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="16" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="25" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="11" width="16" customWidth="1" collapsed="1"/>
@@ -681,7 +681,7 @@
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -690,13 +690,13 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -713,7 +713,7 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -722,13 +722,13 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
@@ -745,7 +745,7 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -754,7 +754,7 @@
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
         <v>21</v>
@@ -771,7 +771,7 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -788,7 +788,7 @@
         <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -805,7 +805,7 @@
         <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -814,7 +814,7 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s">
         <v>30</v>
@@ -828,7 +828,7 @@
         <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
         <v>31</v>
@@ -837,13 +837,13 @@
         <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
         <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J9" t="s">
         <v>34</v>
@@ -860,7 +860,7 @@
         <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
         <v>37</v>
@@ -877,7 +877,7 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
         <v>40</v>
@@ -886,7 +886,7 @@
         <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
         <v>42</v>
@@ -903,7 +903,7 @@
         <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
@@ -920,7 +920,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
@@ -937,7 +937,7 @@
         <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
         <v>51</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Area.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E03574-461E-4FC7-923F-5F14721A2316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727EE4F2-D0A7-40AE-894E-70ADE2DEAB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -626,7 +626,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Area.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Area.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727EE4F2-D0A7-40AE-894E-70ADE2DEAB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995F838C-6096-4C8B-85D1-68DCF283BB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23925" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Area" sheetId="1" r:id="rId1"/>
@@ -214,9 +214,6 @@
     <t>Ponto de Coleta</t>
   </si>
   <si>
-    <t>Cadeia</t>
-  </si>
-  <si>
     <t>Banho Público</t>
   </si>
   <si>
@@ -245,6 +242,9 @@
   </si>
   <si>
     <t>Local para criar animais de fazenda</t>
+  </si>
+  <si>
+    <t>Prisão</t>
   </si>
 </sst>
 </file>
@@ -626,12 +626,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="16" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="35.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="16" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="25" bestFit="1" customWidth="1" collapsed="1"/>
@@ -690,13 +692,13 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -722,13 +724,13 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
@@ -754,7 +756,7 @@
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
         <v>21</v>
@@ -814,7 +816,7 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
         <v>30</v>
@@ -837,13 +839,13 @@
         <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
         <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
         <v>34</v>
@@ -877,7 +879,7 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
         <v>40</v>
@@ -886,7 +888,7 @@
         <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s">
         <v>42</v>
@@ -903,7 +905,7 @@
         <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
@@ -920,7 +922,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
@@ -937,7 +939,7 @@
         <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
         <v>51</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Area.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Area.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995F838C-6096-4C8B-85D1-68DCF283BB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727EE4F2-D0A7-40AE-894E-70ADE2DEAB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="23925" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Area" sheetId="1" r:id="rId1"/>
@@ -214,6 +214,9 @@
     <t>Ponto de Coleta</t>
   </si>
   <si>
+    <t>Cadeia</t>
+  </si>
+  <si>
     <t>Banho Público</t>
   </si>
   <si>
@@ -242,9 +245,6 @@
   </si>
   <si>
     <t>Local para criar animais de fazenda</t>
-  </si>
-  <si>
-    <t>Prisão</t>
   </si>
 </sst>
 </file>
@@ -626,14 +626,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="5" width="16" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="35.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="16" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="25" bestFit="1" customWidth="1" collapsed="1"/>
@@ -692,13 +690,13 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -724,13 +722,13 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
@@ -756,7 +754,7 @@
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
         <v>21</v>
@@ -816,7 +814,7 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s">
         <v>30</v>
@@ -839,13 +837,13 @@
         <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
         <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J9" t="s">
         <v>34</v>
@@ -879,7 +877,7 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
         <v>40</v>
@@ -888,7 +886,7 @@
         <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
         <v>42</v>
@@ -905,7 +903,7 @@
         <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
@@ -922,7 +920,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
@@ -939,7 +937,7 @@
         <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
         <v>51</v>
